--- a/public/formatoquinto.xlsx
+++ b/public/formatoquinto.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Nueva carpeta (2)\Academico360Mongo\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Nueva carpeta (4)\Academico360Mongo\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -847,6 +847,199 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="88"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -857,9 +1050,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -875,196 +1065,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="88"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1086,25 +1086,23 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
+      <xdr:colOff>76201</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>2152</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
@@ -1119,48 +1117,15 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="438149" y="123825"/>
-          <a:ext cx="2962275" cy="449827"/>
+          <a:off x="76201" y="76200"/>
+          <a:ext cx="3676650" cy="518160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:blipFill dpi="0" rotWithShape="0">
-                <a:srcRect/>
-                <a:stretch>
-                  <a:fillRect/>
-                </a:stretch>
-              </a:blipFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="3465A4"/>
-              </a:solidFill>
-              <a:round/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1519,7 +1484,7 @@
   <dimension ref="A1:X66"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,17 +1524,17 @@
       <c r="J1" s="32"/>
       <c r="K1" s="32"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="113" t="s">
+      <c r="M1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
@@ -1610,18 +1575,18 @@
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
-      <c r="L3" s="114" t="s">
+      <c r="L3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="115"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
     </row>
     <row r="4" spans="1:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -1689,83 +1654,83 @@
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
       <c r="L6" s="24"/>
-      <c r="M6" s="111" t="s">
+      <c r="M6" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
     </row>
     <row r="7" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="117" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="117"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="118" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="106" t="s">
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="R7" s="106"/>
-      <c r="S7" s="106"/>
-      <c r="T7" s="106"/>
-      <c r="U7" s="119"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="56"/>
     </row>
     <row r="8" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="120" t="s">
+      <c r="B8" s="52"/>
+      <c r="C8" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="121" t="s">
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="122" t="s">
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="122"/>
-      <c r="M8" s="122"/>
-      <c r="N8" s="122"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
       <c r="O8" s="24" t="s">
         <v>63</v>
       </c>
       <c r="P8" s="24"/>
-      <c r="Q8" s="112" t="s">
+      <c r="Q8" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="R8" s="112"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="112"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
     </row>
     <row r="9" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1775,33 +1740,33 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="109"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="63"/>
     </row>
     <row r="10" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="105" t="s">
+      <c r="A10" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
       <c r="H10" s="38" t="s">
         <v>67</v>
       </c>
@@ -1810,72 +1775,72 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="110"/>
-      <c r="O10" s="110"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="110"/>
-      <c r="S10" s="110"/>
-      <c r="T10" s="110"/>
-      <c r="U10" s="110"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
     </row>
     <row r="11" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
       <c r="J11" s="24" t="s">
         <v>68</v>
       </c>
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="106"/>
-      <c r="R11" s="106"/>
-      <c r="S11" s="106"/>
-      <c r="T11" s="106"/>
-      <c r="U11" s="106"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="55"/>
     </row>
     <row r="12" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="105" t="s">
+      <c r="A12" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
       <c r="J12" s="24" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="106"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
       <c r="P12" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="106"/>
-      <c r="S12" s="106"/>
-      <c r="T12" s="106"/>
-      <c r="U12" s="106"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="55"/>
     </row>
     <row r="13" spans="1:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
@@ -1901,34 +1866,34 @@
       <c r="U13" s="22"/>
     </row>
     <row r="14" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
       <c r="L14" s="5"/>
       <c r="M14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N14" s="101" t="s">
+      <c r="N14" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="O14" s="102"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="100" t="s">
+      <c r="O14" s="70"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="R14" s="100"/>
-      <c r="S14" s="100"/>
-      <c r="T14" s="100"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
       <c r="U14" s="11" t="s">
         <v>17</v>
       </c>
@@ -1937,1135 +1902,1135 @@
       <c r="A15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="95" t="s">
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95" t="s">
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="95"/>
+      <c r="K15" s="73"/>
       <c r="L15" s="2"/>
       <c r="M15" s="11">
         <v>3</v>
       </c>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="97"/>
-      <c r="Q15" s="96"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="96"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="75"/>
+      <c r="T15" s="75"/>
       <c r="U15" s="33"/>
     </row>
     <row r="16" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>1</v>
       </c>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="53" t="s">
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="K16" s="53"/>
+      <c r="K16" s="76"/>
       <c r="L16" s="2"/>
       <c r="M16" s="12">
         <v>4</v>
       </c>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="96"/>
-      <c r="R16" s="96"/>
-      <c r="S16" s="96"/>
-      <c r="T16" s="96"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="75"/>
+      <c r="T16" s="75"/>
       <c r="U16" s="33"/>
     </row>
     <row r="17" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>2</v>
       </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="100" t="s">
+      <c r="B17" s="75"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="K17" s="100"/>
+      <c r="K17" s="72"/>
       <c r="L17" s="2"/>
       <c r="M17" s="11">
         <v>5</v>
       </c>
-      <c r="N17" s="97"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="97"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="96"/>
-      <c r="S17" s="96"/>
-      <c r="T17" s="96"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="75"/>
+      <c r="T17" s="75"/>
       <c r="U17" s="33"/>
     </row>
     <row r="18" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="93"/>
-      <c r="U18" s="93"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="68"/>
     </row>
     <row r="19" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="86" t="s">
+      <c r="M19" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="86"/>
-      <c r="S19" s="86"/>
-      <c r="T19" s="86"/>
-      <c r="U19" s="86"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="81"/>
+      <c r="T19" s="81"/>
+      <c r="U19" s="81"/>
     </row>
     <row r="20" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78" t="s">
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78" t="s">
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="78" t="s">
+      <c r="H20" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="78"/>
-      <c r="J20" s="82" t="s">
+      <c r="I20" s="79"/>
+      <c r="J20" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="82"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="78" t="s">
+      <c r="K20" s="80"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="78"/>
-      <c r="O20" s="78" t="s">
+      <c r="N20" s="79"/>
+      <c r="O20" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="78" t="s">
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="S20" s="78" t="s">
+      <c r="S20" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="T20" s="78"/>
-      <c r="U20" s="82" t="s">
+      <c r="T20" s="79"/>
+      <c r="U20" s="80" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="78"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
       <c r="D21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="78" t="s">
+      <c r="E21" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
       <c r="H21" s="40" t="s">
         <v>27</v>
       </c>
       <c r="I21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="78"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
       <c r="O21" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P21" s="78" t="s">
+      <c r="P21" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="Q21" s="78"/>
-      <c r="R21" s="78"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="79"/>
       <c r="S21" s="40" t="s">
         <v>27</v>
       </c>
       <c r="T21" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="U21" s="82"/>
+      <c r="U21" s="80"/>
       <c r="V21" s="15"/>
     </row>
     <row r="22" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
       <c r="D22" s="17"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
       <c r="G22" s="17"/>
       <c r="H22" s="48"/>
       <c r="I22" s="48"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="80" t="s">
+      <c r="M22" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="N22" s="80"/>
+      <c r="N22" s="83"/>
       <c r="O22" s="17"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="85"/>
       <c r="R22" s="17"/>
       <c r="S22" s="41"/>
       <c r="T22" s="41"/>
       <c r="U22" s="41"/>
     </row>
     <row r="23" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="89"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="92"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="88"/>
       <c r="D23" s="47"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
       <c r="G23" s="17"/>
       <c r="H23" s="48"/>
       <c r="I23" s="48"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="85"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="89" t="s">
+      <c r="M23" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="N23" s="90"/>
+      <c r="N23" s="89"/>
       <c r="O23" s="17"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="85"/>
       <c r="R23" s="17"/>
       <c r="S23" s="41"/>
       <c r="T23" s="41"/>
       <c r="U23" s="41"/>
     </row>
     <row r="24" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="88"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
+      <c r="A24" s="90"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
       <c r="D24" s="17"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
       <c r="G24" s="17"/>
       <c r="H24" s="48"/>
       <c r="I24" s="48"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="84"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="88" t="s">
+      <c r="M24" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="N24" s="88"/>
+      <c r="N24" s="90"/>
       <c r="O24" s="17"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="85"/>
       <c r="R24" s="17"/>
       <c r="S24" s="41"/>
       <c r="T24" s="41"/>
       <c r="U24" s="41"/>
     </row>
     <row r="25" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="81"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="81"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
       <c r="G25" s="17"/>
       <c r="H25" s="48"/>
       <c r="I25" s="48"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="81" t="s">
+      <c r="M25" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="N25" s="81"/>
+      <c r="N25" s="91"/>
       <c r="O25" s="17"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="85"/>
       <c r="R25" s="17"/>
       <c r="S25" s="41"/>
       <c r="T25" s="41"/>
       <c r="U25" s="41"/>
     </row>
     <row r="26" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="81"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="81"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
       <c r="D26" s="17"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
       <c r="G26" s="17"/>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="85"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="81" t="s">
+      <c r="M26" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="N26" s="81"/>
+      <c r="N26" s="91"/>
       <c r="O26" s="17"/>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="66"/>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="85"/>
       <c r="R26" s="17"/>
       <c r="S26" s="41"/>
       <c r="T26" s="41"/>
       <c r="U26" s="41"/>
     </row>
     <row r="27" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="81"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
+      <c r="A27" s="91"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="91"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
       <c r="G27" s="17"/>
       <c r="H27" s="48"/>
       <c r="I27" s="48"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="81" t="s">
+      <c r="M27" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="N27" s="81"/>
+      <c r="N27" s="91"/>
       <c r="O27" s="17"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="85"/>
       <c r="R27" s="17"/>
       <c r="S27" s="41"/>
       <c r="T27" s="41"/>
       <c r="U27" s="41"/>
     </row>
     <row r="28" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="81"/>
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
+      <c r="A28" s="91"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="17"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
       <c r="G28" s="17"/>
       <c r="H28" s="48"/>
       <c r="I28" s="48"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="81" t="s">
+      <c r="M28" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="N28" s="81"/>
+      <c r="N28" s="91"/>
       <c r="O28" s="17"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="66"/>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="85"/>
       <c r="R28" s="17"/>
       <c r="S28" s="41"/>
       <c r="T28" s="41"/>
       <c r="U28" s="41"/>
     </row>
     <row r="29" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="86" t="s">
+      <c r="A29" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="86" t="s">
+      <c r="M29" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="86"/>
-      <c r="T29" s="86"/>
-      <c r="U29" s="86"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="81"/>
+      <c r="P29" s="81"/>
+      <c r="Q29" s="81"/>
+      <c r="R29" s="81"/>
+      <c r="S29" s="81"/>
+      <c r="T29" s="81"/>
+      <c r="U29" s="81"/>
     </row>
     <row r="30" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="78" t="s">
+      <c r="A30" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="78"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78" t="s">
+      <c r="B30" s="79"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78" t="s">
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="78" t="s">
+      <c r="H30" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="I30" s="78"/>
-      <c r="J30" s="82" t="s">
+      <c r="I30" s="79"/>
+      <c r="J30" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="K30" s="82"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="78" t="s">
+      <c r="K30" s="80"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78" t="s">
+      <c r="N30" s="79"/>
+      <c r="O30" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="P30" s="78"/>
-      <c r="Q30" s="78"/>
-      <c r="R30" s="78" t="s">
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="S30" s="78" t="s">
+      <c r="S30" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="T30" s="78"/>
-      <c r="U30" s="82" t="s">
+      <c r="T30" s="79"/>
+      <c r="U30" s="80" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="78"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="78"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="79"/>
       <c r="D31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="78" t="s">
+      <c r="E31" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
       <c r="H31" s="40" t="s">
         <v>27</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J31" s="82"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="78"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
       <c r="O31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="P31" s="78" t="s">
+      <c r="P31" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="Q31" s="78"/>
-      <c r="R31" s="78"/>
+      <c r="Q31" s="79"/>
+      <c r="R31" s="79"/>
       <c r="S31" s="40" t="s">
         <v>27</v>
       </c>
       <c r="T31" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="U31" s="82"/>
+      <c r="U31" s="80"/>
       <c r="V31" s="15"/>
     </row>
     <row r="32" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="81" t="s">
+      <c r="A32" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="81"/>
-      <c r="C32" s="81"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="91"/>
       <c r="D32" s="17"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="68"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="94"/>
       <c r="L32" s="16"/>
-      <c r="M32" s="80" t="s">
+      <c r="M32" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="N32" s="80"/>
+      <c r="N32" s="83"/>
       <c r="O32" s="17"/>
-      <c r="P32" s="66"/>
-      <c r="Q32" s="66"/>
+      <c r="P32" s="85"/>
+      <c r="Q32" s="85"/>
       <c r="R32" s="17"/>
       <c r="S32" s="17"/>
       <c r="T32" s="17"/>
       <c r="U32" s="17"/>
     </row>
     <row r="33" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="81" t="s">
+      <c r="A33" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="81"/>
-      <c r="C33" s="81"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="68"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="94"/>
       <c r="L33" s="16"/>
-      <c r="M33" s="89" t="s">
+      <c r="M33" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="N33" s="90"/>
+      <c r="N33" s="89"/>
       <c r="O33" s="17"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="66"/>
+      <c r="P33" s="85"/>
+      <c r="Q33" s="85"/>
       <c r="R33" s="17"/>
       <c r="S33" s="17"/>
       <c r="T33" s="17"/>
       <c r="U33" s="17"/>
     </row>
     <row r="34" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="81" t="s">
+      <c r="A34" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
       <c r="D34" s="17"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="68"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="94"/>
       <c r="L34" s="16"/>
-      <c r="M34" s="88" t="s">
+      <c r="M34" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="N34" s="88"/>
+      <c r="N34" s="90"/>
       <c r="O34" s="17"/>
-      <c r="P34" s="66"/>
-      <c r="Q34" s="66"/>
+      <c r="P34" s="85"/>
+      <c r="Q34" s="85"/>
       <c r="R34" s="17"/>
       <c r="S34" s="17"/>
       <c r="T34" s="17"/>
       <c r="U34" s="17"/>
     </row>
     <row r="35" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="81"/>
-      <c r="C35" s="81"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
       <c r="D35" s="17"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="68"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="94"/>
       <c r="L35" s="16"/>
-      <c r="M35" s="81" t="s">
+      <c r="M35" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="N35" s="81"/>
+      <c r="N35" s="91"/>
       <c r="O35" s="17"/>
-      <c r="P35" s="66"/>
-      <c r="Q35" s="66"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
       <c r="R35" s="17"/>
       <c r="S35" s="17"/>
       <c r="T35" s="17"/>
       <c r="U35" s="17"/>
     </row>
     <row r="36" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="81"/>
-      <c r="C36" s="81"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="91"/>
       <c r="D36" s="17"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="68"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="94"/>
       <c r="L36" s="16"/>
-      <c r="M36" s="81" t="s">
+      <c r="M36" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="N36" s="81"/>
+      <c r="N36" s="91"/>
       <c r="O36" s="17"/>
-      <c r="P36" s="66"/>
-      <c r="Q36" s="66"/>
+      <c r="P36" s="85"/>
+      <c r="Q36" s="85"/>
       <c r="R36" s="17"/>
       <c r="S36" s="17"/>
       <c r="T36" s="17"/>
       <c r="U36" s="17"/>
     </row>
     <row r="37" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="81" t="s">
+      <c r="A37" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="81"/>
-      <c r="C37" s="81"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
       <c r="D37" s="17"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="68"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="94"/>
       <c r="L37" s="16"/>
-      <c r="M37" s="81" t="s">
+      <c r="M37" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="N37" s="81"/>
+      <c r="N37" s="91"/>
       <c r="O37" s="17"/>
-      <c r="P37" s="66"/>
-      <c r="Q37" s="66"/>
+      <c r="P37" s="85"/>
+      <c r="Q37" s="85"/>
       <c r="R37" s="17"/>
       <c r="S37" s="17"/>
       <c r="T37" s="17"/>
       <c r="U37" s="17"/>
     </row>
     <row r="38" spans="1:24" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="81" t="s">
+      <c r="A38" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="81"/>
-      <c r="C38" s="81"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
       <c r="D38" s="17"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="68"/>
+      <c r="J38" s="93"/>
+      <c r="K38" s="94"/>
       <c r="L38" s="16"/>
-      <c r="M38" s="81" t="s">
+      <c r="M38" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="N38" s="81"/>
+      <c r="N38" s="91"/>
       <c r="O38" s="17"/>
-      <c r="P38" s="66"/>
-      <c r="Q38" s="66"/>
+      <c r="P38" s="85"/>
+      <c r="Q38" s="85"/>
       <c r="R38" s="17"/>
       <c r="S38" s="17"/>
       <c r="T38" s="17"/>
       <c r="U38" s="17"/>
     </row>
     <row r="39" spans="1:24" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="81" t="s">
+      <c r="A39" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="81"/>
-      <c r="C39" s="81"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
       <c r="D39" s="17"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="68"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="94"/>
       <c r="L39" s="16"/>
-      <c r="M39" s="81" t="s">
+      <c r="M39" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="N39" s="81"/>
+      <c r="N39" s="91"/>
       <c r="O39" s="17"/>
-      <c r="P39" s="66"/>
-      <c r="Q39" s="66"/>
+      <c r="P39" s="85"/>
+      <c r="Q39" s="85"/>
       <c r="R39" s="17"/>
       <c r="S39" s="17"/>
       <c r="T39" s="17"/>
       <c r="U39" s="17"/>
     </row>
     <row r="40" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="84" t="s">
+      <c r="A40" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="95"/>
       <c r="D40" s="17"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
       <c r="G40" s="17"/>
       <c r="H40" s="41"/>
       <c r="I40" s="17"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="85"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="84"/>
       <c r="L40" s="16"/>
-      <c r="M40" s="81" t="s">
+      <c r="M40" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="N40" s="81"/>
+      <c r="N40" s="91"/>
       <c r="O40" s="17"/>
-      <c r="P40" s="66"/>
-      <c r="Q40" s="66"/>
+      <c r="P40" s="85"/>
+      <c r="Q40" s="85"/>
       <c r="R40" s="17"/>
       <c r="S40" s="17"/>
       <c r="T40" s="17"/>
       <c r="U40" s="17"/>
     </row>
     <row r="41" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="86" t="s">
+      <c r="A41" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="86"/>
-      <c r="H41" s="86"/>
-      <c r="I41" s="86"/>
-      <c r="J41" s="86"/>
-      <c r="K41" s="86"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="81"/>
+      <c r="K41" s="81"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="87" t="s">
+      <c r="M41" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="N41" s="87"/>
-      <c r="O41" s="87"/>
-      <c r="P41" s="87"/>
-      <c r="Q41" s="87"/>
-      <c r="R41" s="87"/>
-      <c r="S41" s="87"/>
-      <c r="T41" s="87"/>
-      <c r="U41" s="87"/>
+      <c r="N41" s="96"/>
+      <c r="O41" s="96"/>
+      <c r="P41" s="96"/>
+      <c r="Q41" s="96"/>
+      <c r="R41" s="96"/>
+      <c r="S41" s="96"/>
+      <c r="T41" s="96"/>
+      <c r="U41" s="96"/>
     </row>
     <row r="42" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="78" t="s">
+      <c r="A42" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78" t="s">
+      <c r="B42" s="79"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78" t="s">
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="H42" s="78" t="s">
+      <c r="H42" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="I42" s="78"/>
-      <c r="J42" s="82" t="s">
+      <c r="I42" s="79"/>
+      <c r="J42" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="K42" s="82"/>
-      <c r="L42" s="83"/>
-      <c r="M42" s="77" t="s">
+      <c r="K42" s="80"/>
+      <c r="L42" s="92"/>
+      <c r="M42" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="N42" s="77"/>
+      <c r="N42" s="99"/>
       <c r="O42" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="P42" s="78" t="s">
+      <c r="P42" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="Q42" s="78"/>
-      <c r="R42" s="78"/>
-      <c r="S42" s="78"/>
-      <c r="T42" s="78"/>
-      <c r="U42" s="78"/>
+      <c r="Q42" s="79"/>
+      <c r="R42" s="79"/>
+      <c r="S42" s="79"/>
+      <c r="T42" s="79"/>
+      <c r="U42" s="79"/>
       <c r="X42" s="19"/>
     </row>
     <row r="43" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="78"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
+      <c r="A43" s="79"/>
+      <c r="B43" s="79"/>
+      <c r="C43" s="79"/>
       <c r="D43" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="78" t="s">
+      <c r="E43" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
       <c r="H43" s="40" t="s">
         <v>27</v>
       </c>
       <c r="I43" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J43" s="82"/>
-      <c r="K43" s="82"/>
-      <c r="L43" s="83"/>
-      <c r="M43" s="79" t="s">
+      <c r="J43" s="80"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="92"/>
+      <c r="M43" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="N43" s="79"/>
+      <c r="N43" s="100"/>
       <c r="O43" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="P43" s="72"/>
-      <c r="Q43" s="72"/>
-      <c r="R43" s="72"/>
-      <c r="S43" s="72"/>
-      <c r="T43" s="72"/>
-      <c r="U43" s="72"/>
+      <c r="P43" s="97"/>
+      <c r="Q43" s="97"/>
+      <c r="R43" s="97"/>
+      <c r="S43" s="97"/>
+      <c r="T43" s="97"/>
+      <c r="U43" s="97"/>
     </row>
     <row r="44" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="80" t="s">
+      <c r="A44" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="80"/>
-      <c r="C44" s="80"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="83"/>
       <c r="D44" s="17"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
-      <c r="J44" s="67"/>
-      <c r="K44" s="68"/>
+      <c r="J44" s="93"/>
+      <c r="K44" s="94"/>
       <c r="L44" s="16"/>
-      <c r="M44" s="79"/>
-      <c r="N44" s="79"/>
+      <c r="M44" s="100"/>
+      <c r="N44" s="100"/>
       <c r="O44" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="P44" s="72"/>
-      <c r="Q44" s="72"/>
-      <c r="R44" s="72"/>
-      <c r="S44" s="72"/>
-      <c r="T44" s="72"/>
-      <c r="U44" s="72"/>
+      <c r="P44" s="97"/>
+      <c r="Q44" s="97"/>
+      <c r="R44" s="97"/>
+      <c r="S44" s="97"/>
+      <c r="T44" s="97"/>
+      <c r="U44" s="97"/>
     </row>
     <row r="45" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="81" t="s">
+      <c r="A45" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="81"/>
-      <c r="C45" s="81"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="91"/>
       <c r="D45" s="17"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="85"/>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
-      <c r="J45" s="67"/>
-      <c r="K45" s="68"/>
+      <c r="J45" s="93"/>
+      <c r="K45" s="94"/>
       <c r="L45" s="16"/>
-      <c r="M45" s="79"/>
-      <c r="N45" s="79"/>
+      <c r="M45" s="100"/>
+      <c r="N45" s="100"/>
       <c r="O45" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="P45" s="72"/>
-      <c r="Q45" s="72"/>
-      <c r="R45" s="72"/>
-      <c r="S45" s="72"/>
-      <c r="T45" s="72"/>
-      <c r="U45" s="72"/>
+      <c r="P45" s="97"/>
+      <c r="Q45" s="97"/>
+      <c r="R45" s="97"/>
+      <c r="S45" s="97"/>
+      <c r="T45" s="97"/>
+      <c r="U45" s="97"/>
     </row>
     <row r="46" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="76" t="s">
+      <c r="A46" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="76"/>
-      <c r="C46" s="76"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="98"/>
       <c r="D46" s="17"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
-      <c r="J46" s="67"/>
-      <c r="K46" s="68"/>
+      <c r="J46" s="93"/>
+      <c r="K46" s="94"/>
       <c r="L46" s="16"/>
-      <c r="M46" s="79"/>
-      <c r="N46" s="79"/>
+      <c r="M46" s="100"/>
+      <c r="N46" s="100"/>
       <c r="O46" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="P46" s="72"/>
-      <c r="Q46" s="72"/>
-      <c r="R46" s="72"/>
-      <c r="S46" s="72"/>
-      <c r="T46" s="72"/>
-      <c r="U46" s="72"/>
+      <c r="P46" s="97"/>
+      <c r="Q46" s="97"/>
+      <c r="R46" s="97"/>
+      <c r="S46" s="97"/>
+      <c r="T46" s="97"/>
+      <c r="U46" s="97"/>
     </row>
     <row r="47" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="76" t="s">
+      <c r="A47" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="76"/>
-      <c r="C47" s="76"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="98"/>
       <c r="D47" s="17"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
-      <c r="J47" s="67"/>
-      <c r="K47" s="68"/>
+      <c r="J47" s="93"/>
+      <c r="K47" s="94"/>
       <c r="L47" s="16"/>
-      <c r="M47" s="79"/>
-      <c r="N47" s="79"/>
+      <c r="M47" s="100"/>
+      <c r="N47" s="100"/>
       <c r="O47" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="P47" s="72"/>
-      <c r="Q47" s="72"/>
-      <c r="R47" s="72"/>
-      <c r="S47" s="72"/>
-      <c r="T47" s="72"/>
-      <c r="U47" s="72"/>
+      <c r="P47" s="97"/>
+      <c r="Q47" s="97"/>
+      <c r="R47" s="97"/>
+      <c r="S47" s="97"/>
+      <c r="T47" s="97"/>
+      <c r="U47" s="97"/>
     </row>
     <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="73" t="s">
+      <c r="A48" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="73"/>
-      <c r="C48" s="73"/>
+      <c r="B48" s="101"/>
+      <c r="C48" s="101"/>
       <c r="D48" s="17"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="68"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="94"/>
       <c r="L48" s="16"/>
-      <c r="M48" s="74" t="s">
+      <c r="M48" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="N48" s="74"/>
+      <c r="N48" s="102"/>
       <c r="O48" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="P48" s="75" t="s">
+      <c r="P48" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="Q48" s="75"/>
-      <c r="R48" s="75"/>
-      <c r="S48" s="75"/>
-      <c r="T48" s="75" t="s">
+      <c r="Q48" s="103"/>
+      <c r="R48" s="103"/>
+      <c r="S48" s="103"/>
+      <c r="T48" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="U48" s="75"/>
+      <c r="U48" s="103"/>
     </row>
     <row r="49" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="70" t="s">
+      <c r="A49" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="104"/>
       <c r="D49" s="17"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
-      <c r="J49" s="67"/>
-      <c r="K49" s="68"/>
+      <c r="J49" s="93"/>
+      <c r="K49" s="94"/>
       <c r="L49" s="30"/>
-      <c r="M49" s="71" t="s">
+      <c r="M49" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="N49" s="71"/>
+      <c r="N49" s="105"/>
       <c r="O49" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="P49" s="69"/>
-      <c r="Q49" s="69"/>
-      <c r="R49" s="69"/>
-      <c r="S49" s="69"/>
-      <c r="T49" s="64"/>
-      <c r="U49" s="64"/>
+      <c r="P49" s="106"/>
+      <c r="Q49" s="106"/>
+      <c r="R49" s="106"/>
+      <c r="S49" s="106"/>
+      <c r="T49" s="107"/>
+      <c r="U49" s="107"/>
     </row>
     <row r="50" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="70" t="s">
+      <c r="A50" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="104"/>
       <c r="D50" s="17"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="85"/>
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
-      <c r="J50" s="67"/>
-      <c r="K50" s="68"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="94"/>
       <c r="L50" s="30"/>
-      <c r="M50" s="71"/>
-      <c r="N50" s="71"/>
+      <c r="M50" s="105"/>
+      <c r="N50" s="105"/>
       <c r="O50" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="P50" s="69"/>
-      <c r="Q50" s="69"/>
-      <c r="R50" s="69"/>
-      <c r="S50" s="69"/>
-      <c r="T50" s="64"/>
-      <c r="U50" s="64"/>
+      <c r="P50" s="106"/>
+      <c r="Q50" s="106"/>
+      <c r="R50" s="106"/>
+      <c r="S50" s="106"/>
+      <c r="T50" s="107"/>
+      <c r="U50" s="107"/>
     </row>
     <row r="51" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="70" t="s">
+      <c r="A51" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="70"/>
-      <c r="C51" s="70"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="104"/>
       <c r="D51" s="17"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="85"/>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
-      <c r="J51" s="67"/>
-      <c r="K51" s="68"/>
+      <c r="J51" s="93"/>
+      <c r="K51" s="94"/>
       <c r="L51" s="30"/>
-      <c r="M51" s="71"/>
-      <c r="N51" s="71"/>
+      <c r="M51" s="105"/>
+      <c r="N51" s="105"/>
       <c r="O51" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="P51" s="69"/>
-      <c r="Q51" s="69"/>
-      <c r="R51" s="69"/>
-      <c r="S51" s="69"/>
-      <c r="T51" s="64"/>
-      <c r="U51" s="64"/>
+      <c r="P51" s="106"/>
+      <c r="Q51" s="106"/>
+      <c r="R51" s="106"/>
+      <c r="S51" s="106"/>
+      <c r="T51" s="107"/>
+      <c r="U51" s="107"/>
     </row>
     <row r="52" spans="1:21" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="65" t="s">
+      <c r="A52" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
+      <c r="B52" s="112"/>
+      <c r="C52" s="112"/>
       <c r="D52" s="17"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
-      <c r="J52" s="67"/>
-      <c r="K52" s="68"/>
+      <c r="J52" s="93"/>
+      <c r="K52" s="94"/>
       <c r="L52" s="30"/>
-      <c r="M52" s="71"/>
-      <c r="N52" s="71"/>
+      <c r="M52" s="105"/>
+      <c r="N52" s="105"/>
       <c r="O52" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="P52" s="69"/>
-      <c r="Q52" s="69"/>
-      <c r="R52" s="69"/>
-      <c r="S52" s="69"/>
-      <c r="T52" s="64"/>
-      <c r="U52" s="64"/>
+      <c r="P52" s="106"/>
+      <c r="Q52" s="106"/>
+      <c r="R52" s="106"/>
+      <c r="S52" s="106"/>
+      <c r="T52" s="107"/>
+      <c r="U52" s="107"/>
     </row>
     <row r="53" spans="1:21" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="65" t="s">
+      <c r="A53" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
+      <c r="B53" s="112"/>
+      <c r="C53" s="112"/>
       <c r="D53" s="17"/>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
-      <c r="J53" s="67"/>
-      <c r="K53" s="68"/>
+      <c r="J53" s="93"/>
+      <c r="K53" s="94"/>
       <c r="L53" s="30"/>
-      <c r="M53" s="71"/>
-      <c r="N53" s="71"/>
+      <c r="M53" s="105"/>
+      <c r="N53" s="105"/>
       <c r="O53" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="P53" s="69"/>
-      <c r="Q53" s="69"/>
-      <c r="R53" s="69"/>
-      <c r="S53" s="69"/>
-      <c r="T53" s="64"/>
-      <c r="U53" s="64"/>
+      <c r="P53" s="106"/>
+      <c r="Q53" s="106"/>
+      <c r="R53" s="106"/>
+      <c r="S53" s="106"/>
+      <c r="T53" s="107"/>
+      <c r="U53" s="107"/>
     </row>
     <row r="54" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="28" t="s">
@@ -3093,446 +3058,348 @@
       <c r="U54" s="46"/>
     </row>
     <row r="55" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="60"/>
-      <c r="B55" s="61"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="62"/>
-      <c r="M55" s="62"/>
-      <c r="N55" s="62"/>
-      <c r="O55" s="62"/>
-      <c r="P55" s="62"/>
-      <c r="Q55" s="62"/>
-      <c r="R55" s="62"/>
-      <c r="S55" s="62"/>
-      <c r="T55" s="62"/>
-      <c r="U55" s="63"/>
+      <c r="A55" s="108"/>
+      <c r="B55" s="109"/>
+      <c r="C55" s="109"/>
+      <c r="D55" s="110"/>
+      <c r="E55" s="110"/>
+      <c r="F55" s="110"/>
+      <c r="G55" s="110"/>
+      <c r="H55" s="110"/>
+      <c r="I55" s="110"/>
+      <c r="J55" s="110"/>
+      <c r="K55" s="110"/>
+      <c r="L55" s="110"/>
+      <c r="M55" s="110"/>
+      <c r="N55" s="110"/>
+      <c r="O55" s="110"/>
+      <c r="P55" s="110"/>
+      <c r="Q55" s="110"/>
+      <c r="R55" s="110"/>
+      <c r="S55" s="110"/>
+      <c r="T55" s="110"/>
+      <c r="U55" s="111"/>
     </row>
     <row r="56" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="52"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="52"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="52"/>
-      <c r="M56" s="52"/>
-      <c r="N56" s="52"/>
-      <c r="O56" s="52"/>
-      <c r="P56" s="52"/>
-      <c r="Q56" s="52"/>
-      <c r="R56" s="52"/>
-      <c r="S56" s="52"/>
-      <c r="T56" s="52"/>
-      <c r="U56" s="52"/>
+      <c r="A56" s="116"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="116"/>
+      <c r="E56" s="116"/>
+      <c r="F56" s="116"/>
+      <c r="G56" s="116"/>
+      <c r="H56" s="116"/>
+      <c r="I56" s="116"/>
+      <c r="J56" s="116"/>
+      <c r="K56" s="116"/>
+      <c r="L56" s="116"/>
+      <c r="M56" s="116"/>
+      <c r="N56" s="116"/>
+      <c r="O56" s="116"/>
+      <c r="P56" s="116"/>
+      <c r="Q56" s="116"/>
+      <c r="R56" s="116"/>
+      <c r="S56" s="116"/>
+      <c r="T56" s="116"/>
+      <c r="U56" s="116"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A57" s="53" t="s">
+      <c r="A57" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="53"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="53"/>
-      <c r="J57" s="53"/>
-      <c r="K57" s="53"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="76"/>
+      <c r="I57" s="76"/>
+      <c r="J57" s="76"/>
+      <c r="K57" s="76"/>
       <c r="L57" s="2"/>
-      <c r="M57" s="54" t="s">
+      <c r="M57" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="N57" s="54"/>
-      <c r="O57" s="54"/>
-      <c r="P57" s="54"/>
-      <c r="Q57" s="54"/>
-      <c r="R57" s="54"/>
-      <c r="S57" s="54"/>
-      <c r="T57" s="54"/>
-      <c r="U57" s="54"/>
+      <c r="N57" s="117"/>
+      <c r="O57" s="117"/>
+      <c r="P57" s="117"/>
+      <c r="Q57" s="117"/>
+      <c r="R57" s="117"/>
+      <c r="S57" s="117"/>
+      <c r="T57" s="117"/>
+      <c r="U57" s="117"/>
     </row>
     <row r="58" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="55" t="s">
+      <c r="A58" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="55"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="51" t="s">
+      <c r="B58" s="118"/>
+      <c r="C58" s="118"/>
+      <c r="D58" s="118"/>
+      <c r="E58" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="51"/>
-      <c r="K58" s="51"/>
+      <c r="F58" s="115"/>
+      <c r="G58" s="115"/>
+      <c r="H58" s="115"/>
+      <c r="I58" s="115"/>
+      <c r="J58" s="115"/>
+      <c r="K58" s="115"/>
       <c r="L58" s="2"/>
-      <c r="M58" s="55" t="s">
+      <c r="M58" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="N58" s="55"/>
-      <c r="O58" s="55"/>
-      <c r="P58" s="51" t="s">
+      <c r="N58" s="118"/>
+      <c r="O58" s="118"/>
+      <c r="P58" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="Q58" s="51"/>
-      <c r="R58" s="51"/>
-      <c r="S58" s="51"/>
-      <c r="T58" s="51"/>
-      <c r="U58" s="51"/>
+      <c r="Q58" s="115"/>
+      <c r="R58" s="115"/>
+      <c r="S58" s="115"/>
+      <c r="T58" s="115"/>
+      <c r="U58" s="115"/>
     </row>
     <row r="59" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="50" t="s">
+      <c r="A59" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="50"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
-      <c r="I59" s="51"/>
-      <c r="J59" s="51"/>
-      <c r="K59" s="51"/>
+      <c r="B59" s="114"/>
+      <c r="C59" s="114"/>
+      <c r="D59" s="114"/>
+      <c r="E59" s="115"/>
+      <c r="F59" s="115"/>
+      <c r="G59" s="115"/>
+      <c r="H59" s="115"/>
+      <c r="I59" s="115"/>
+      <c r="J59" s="115"/>
+      <c r="K59" s="115"/>
       <c r="L59" s="2"/>
-      <c r="M59" s="50" t="s">
+      <c r="M59" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="N59" s="50"/>
-      <c r="O59" s="50"/>
-      <c r="P59" s="51"/>
-      <c r="Q59" s="51"/>
-      <c r="R59" s="51"/>
-      <c r="S59" s="51"/>
-      <c r="T59" s="51"/>
-      <c r="U59" s="51"/>
+      <c r="N59" s="114"/>
+      <c r="O59" s="114"/>
+      <c r="P59" s="115"/>
+      <c r="Q59" s="115"/>
+      <c r="R59" s="115"/>
+      <c r="S59" s="115"/>
+      <c r="T59" s="115"/>
+      <c r="U59" s="115"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A60" s="50"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="51"/>
-      <c r="K60" s="51"/>
+      <c r="A60" s="114"/>
+      <c r="B60" s="114"/>
+      <c r="C60" s="114"/>
+      <c r="D60" s="114"/>
+      <c r="E60" s="115"/>
+      <c r="F60" s="115"/>
+      <c r="G60" s="115"/>
+      <c r="H60" s="115"/>
+      <c r="I60" s="115"/>
+      <c r="J60" s="115"/>
+      <c r="K60" s="115"/>
       <c r="L60" s="2"/>
-      <c r="M60" s="50"/>
-      <c r="N60" s="50"/>
-      <c r="O60" s="50"/>
-      <c r="P60" s="51"/>
-      <c r="Q60" s="51"/>
-      <c r="R60" s="51"/>
-      <c r="S60" s="51"/>
-      <c r="T60" s="51"/>
-      <c r="U60" s="51"/>
+      <c r="M60" s="114"/>
+      <c r="N60" s="114"/>
+      <c r="O60" s="114"/>
+      <c r="P60" s="115"/>
+      <c r="Q60" s="115"/>
+      <c r="R60" s="115"/>
+      <c r="S60" s="115"/>
+      <c r="T60" s="115"/>
+      <c r="U60" s="115"/>
     </row>
     <row r="61" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="50" t="s">
+      <c r="A61" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="50"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51"/>
-      <c r="I61" s="51"/>
-      <c r="J61" s="51"/>
-      <c r="K61" s="51"/>
+      <c r="B61" s="114"/>
+      <c r="C61" s="114"/>
+      <c r="D61" s="114"/>
+      <c r="E61" s="115"/>
+      <c r="F61" s="115"/>
+      <c r="G61" s="115"/>
+      <c r="H61" s="115"/>
+      <c r="I61" s="115"/>
+      <c r="J61" s="115"/>
+      <c r="K61" s="115"/>
       <c r="L61" s="2"/>
-      <c r="M61" s="50" t="s">
+      <c r="M61" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="N61" s="50"/>
-      <c r="O61" s="50"/>
-      <c r="P61" s="51"/>
-      <c r="Q61" s="51"/>
-      <c r="R61" s="51"/>
-      <c r="S61" s="51"/>
-      <c r="T61" s="51"/>
-      <c r="U61" s="51"/>
+      <c r="N61" s="114"/>
+      <c r="O61" s="114"/>
+      <c r="P61" s="115"/>
+      <c r="Q61" s="115"/>
+      <c r="R61" s="115"/>
+      <c r="S61" s="115"/>
+      <c r="T61" s="115"/>
+      <c r="U61" s="115"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A62" s="50"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="51"/>
-      <c r="H62" s="51"/>
-      <c r="I62" s="51"/>
-      <c r="J62" s="51"/>
-      <c r="K62" s="51"/>
+      <c r="A62" s="114"/>
+      <c r="B62" s="114"/>
+      <c r="C62" s="114"/>
+      <c r="D62" s="114"/>
+      <c r="E62" s="115"/>
+      <c r="F62" s="115"/>
+      <c r="G62" s="115"/>
+      <c r="H62" s="115"/>
+      <c r="I62" s="115"/>
+      <c r="J62" s="115"/>
+      <c r="K62" s="115"/>
       <c r="L62" s="2"/>
-      <c r="M62" s="50"/>
-      <c r="N62" s="50"/>
-      <c r="O62" s="50"/>
-      <c r="P62" s="51"/>
-      <c r="Q62" s="51"/>
-      <c r="R62" s="51"/>
-      <c r="S62" s="51"/>
-      <c r="T62" s="51"/>
-      <c r="U62" s="51"/>
+      <c r="M62" s="114"/>
+      <c r="N62" s="114"/>
+      <c r="O62" s="114"/>
+      <c r="P62" s="115"/>
+      <c r="Q62" s="115"/>
+      <c r="R62" s="115"/>
+      <c r="S62" s="115"/>
+      <c r="T62" s="115"/>
+      <c r="U62" s="115"/>
     </row>
     <row r="63" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="56" t="s">
+      <c r="A63" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="B63" s="56"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="51"/>
-      <c r="H63" s="51"/>
-      <c r="I63" s="51"/>
-      <c r="J63" s="51"/>
-      <c r="K63" s="51"/>
+      <c r="B63" s="119"/>
+      <c r="C63" s="119"/>
+      <c r="D63" s="119"/>
+      <c r="E63" s="115"/>
+      <c r="F63" s="115"/>
+      <c r="G63" s="115"/>
+      <c r="H63" s="115"/>
+      <c r="I63" s="115"/>
+      <c r="J63" s="115"/>
+      <c r="K63" s="115"/>
       <c r="L63" s="2"/>
-      <c r="M63" s="56" t="s">
+      <c r="M63" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="N63" s="56"/>
-      <c r="O63" s="56"/>
-      <c r="P63" s="51"/>
-      <c r="Q63" s="51"/>
-      <c r="R63" s="51"/>
-      <c r="S63" s="51"/>
-      <c r="T63" s="51"/>
-      <c r="U63" s="51"/>
+      <c r="N63" s="119"/>
+      <c r="O63" s="119"/>
+      <c r="P63" s="115"/>
+      <c r="Q63" s="115"/>
+      <c r="R63" s="115"/>
+      <c r="S63" s="115"/>
+      <c r="T63" s="115"/>
+      <c r="U63" s="115"/>
     </row>
     <row r="64" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="57" t="s">
+      <c r="A64" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="B64" s="58"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="51"/>
-      <c r="H64" s="51"/>
-      <c r="I64" s="51"/>
-      <c r="J64" s="51"/>
-      <c r="K64" s="51"/>
+      <c r="B64" s="121"/>
+      <c r="C64" s="121"/>
+      <c r="D64" s="122"/>
+      <c r="E64" s="115"/>
+      <c r="F64" s="115"/>
+      <c r="G64" s="115"/>
+      <c r="H64" s="115"/>
+      <c r="I64" s="115"/>
+      <c r="J64" s="115"/>
+      <c r="K64" s="115"/>
       <c r="L64" s="21"/>
-      <c r="M64" s="57" t="s">
+      <c r="M64" s="120" t="s">
         <v>62</v>
       </c>
-      <c r="N64" s="58"/>
-      <c r="O64" s="59"/>
-      <c r="P64" s="51"/>
-      <c r="Q64" s="51"/>
-      <c r="R64" s="51"/>
-      <c r="S64" s="51"/>
-      <c r="T64" s="51"/>
-      <c r="U64" s="51"/>
+      <c r="N64" s="121"/>
+      <c r="O64" s="122"/>
+      <c r="P64" s="115"/>
+      <c r="Q64" s="115"/>
+      <c r="R64" s="115"/>
+      <c r="S64" s="115"/>
+      <c r="T64" s="115"/>
+      <c r="U64" s="115"/>
     </row>
     <row r="65" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="49" t="s">
+      <c r="A65" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="49"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="49"/>
-      <c r="K65" s="49"/>
-      <c r="L65" s="49"/>
-      <c r="M65" s="49"/>
-      <c r="N65" s="49"/>
-      <c r="O65" s="49"/>
-      <c r="P65" s="49"/>
-      <c r="Q65" s="49"/>
-      <c r="R65" s="49"/>
-      <c r="S65" s="49"/>
-      <c r="T65" s="49"/>
-      <c r="U65" s="49"/>
+      <c r="B65" s="113"/>
+      <c r="C65" s="113"/>
+      <c r="D65" s="113"/>
+      <c r="E65" s="113"/>
+      <c r="F65" s="113"/>
+      <c r="G65" s="113"/>
+      <c r="H65" s="113"/>
+      <c r="I65" s="113"/>
+      <c r="J65" s="113"/>
+      <c r="K65" s="113"/>
+      <c r="L65" s="113"/>
+      <c r="M65" s="113"/>
+      <c r="N65" s="113"/>
+      <c r="O65" s="113"/>
+      <c r="P65" s="113"/>
+      <c r="Q65" s="113"/>
+      <c r="R65" s="113"/>
+      <c r="S65" s="113"/>
+      <c r="T65" s="113"/>
+      <c r="U65" s="113"/>
     </row>
     <row r="66" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="234">
-    <mergeCell ref="M1:U1"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:N8"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="F9:U9"/>
-    <mergeCell ref="N10:U10"/>
-    <mergeCell ref="M6:U6"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="N11:U11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A18:U18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="M19:U19"/>
-    <mergeCell ref="A20:C21"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:N21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="M29:U29"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="M30:N31"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="M41:U41"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A65:U65"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="E58:K64"/>
+    <mergeCell ref="A56:U56"/>
+    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="M57:U57"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="P58:U64"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="A55:U55"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="M49:N53"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="P49:S49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="P50:S50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="P51:S51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="P47:U47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="P48:S48"/>
+    <mergeCell ref="T48:U48"/>
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="J45:K45"/>
     <mergeCell ref="P45:U45"/>
@@ -3557,62 +3424,160 @@
     <mergeCell ref="J42:K43"/>
     <mergeCell ref="L42:L43"/>
     <mergeCell ref="A47:C47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="P47:U47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="P48:S48"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="M49:N53"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="P49:S49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="P50:S50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="P51:S51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="A55:U55"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="P53:S53"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="A65:U65"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="E58:K64"/>
-    <mergeCell ref="A56:U56"/>
-    <mergeCell ref="A57:K57"/>
-    <mergeCell ref="M57:U57"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="P58:U64"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="M63:O63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="M41:U41"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="M30:N31"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="M29:U29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A18:U18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="M19:U19"/>
+    <mergeCell ref="A20:C21"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:N21"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="N11:U11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="F9:U9"/>
+    <mergeCell ref="N10:U10"/>
+    <mergeCell ref="M6:U6"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="M1:U1"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:N8"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="3.937007874015748E-2" bottom="0.82677165354330717" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/public/formatoquinto.xlsx
+++ b/public/formatoquinto.xlsx
@@ -15,9 +15,9 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$U$65</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="0">Hoja1!$A$1:$U$64</definedName>
-    <definedName name="Print_Area_0" localSheetId="0">Hoja1!$A$1:$U$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$U$68</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="0">Hoja1!$A$1:$U$67</definedName>
+    <definedName name="Print_Area_0" localSheetId="0">Hoja1!$A$1:$U$67</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -446,7 +446,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -722,12 +722,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -847,6 +884,194 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="88"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -866,9 +1091,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -881,190 +1103,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="88"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1481,10 +1536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X66"/>
+  <dimension ref="A1:X69"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="X67" sqref="X67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1524,17 +1579,17 @@
       <c r="J1" s="32"/>
       <c r="K1" s="32"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
@@ -1575,18 +1630,18 @@
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
-      <c r="L3" s="50" t="s">
+      <c r="L3" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
     </row>
     <row r="4" spans="1:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -1654,83 +1709,83 @@
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
       <c r="L6" s="24"/>
-      <c r="M6" s="65" t="s">
+      <c r="M6" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="104"/>
+      <c r="T6" s="104"/>
+      <c r="U6" s="104"/>
     </row>
     <row r="7" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="53" t="s">
+      <c r="B7" s="116"/>
+      <c r="C7" s="117" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="54" t="s">
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55" t="s">
+      <c r="P7" s="118"/>
+      <c r="Q7" s="106" t="s">
         <v>81</v>
       </c>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="56"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="119"/>
     </row>
     <row r="8" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="57" t="s">
+      <c r="B8" s="116"/>
+      <c r="C8" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58" t="s">
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="59" t="s">
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="122"/>
       <c r="O8" s="24" t="s">
         <v>63</v>
       </c>
       <c r="P8" s="24"/>
-      <c r="Q8" s="67" t="s">
+      <c r="Q8" s="112" t="s">
         <v>75</v>
       </c>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
+      <c r="R8" s="112"/>
+      <c r="S8" s="112"/>
+      <c r="T8" s="112"/>
+      <c r="U8" s="112"/>
     </row>
     <row r="9" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1740,33 +1795,33 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="63"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="109"/>
+      <c r="T9" s="109"/>
+      <c r="U9" s="109"/>
     </row>
     <row r="10" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
       <c r="H10" s="38" t="s">
         <v>67</v>
       </c>
@@ -1775,72 +1830,72 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="110"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="110"/>
+      <c r="R10" s="110"/>
+      <c r="S10" s="110"/>
+      <c r="T10" s="110"/>
+      <c r="U10" s="110"/>
     </row>
     <row r="11" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
       <c r="J11" s="24" t="s">
         <v>68</v>
       </c>
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="55"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="106"/>
+      <c r="R11" s="106"/>
+      <c r="S11" s="106"/>
+      <c r="T11" s="106"/>
+      <c r="U11" s="106"/>
     </row>
     <row r="12" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
       <c r="D12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
       <c r="J12" s="24" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
+      <c r="N12" s="106"/>
+      <c r="O12" s="106"/>
       <c r="P12" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
+      <c r="Q12" s="106"/>
+      <c r="R12" s="106"/>
+      <c r="S12" s="106"/>
+      <c r="T12" s="106"/>
+      <c r="U12" s="106"/>
     </row>
     <row r="13" spans="1:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
@@ -1866,34 +1921,34 @@
       <c r="U13" s="22"/>
     </row>
     <row r="14" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
       <c r="L14" s="5"/>
       <c r="M14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N14" s="69" t="s">
+      <c r="N14" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="O14" s="70"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="72" t="s">
+      <c r="O14" s="102"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="R14" s="72"/>
-      <c r="S14" s="72"/>
-      <c r="T14" s="72"/>
+      <c r="R14" s="100"/>
+      <c r="S14" s="100"/>
+      <c r="T14" s="100"/>
       <c r="U14" s="11" t="s">
         <v>17</v>
       </c>
@@ -1902,1135 +1957,1135 @@
       <c r="A15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="73" t="s">
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73" t="s">
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="73"/>
+      <c r="K15" s="95"/>
       <c r="L15" s="2"/>
       <c r="M15" s="11">
         <v>3</v>
       </c>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="75"/>
-      <c r="S15" s="75"/>
-      <c r="T15" s="75"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="96"/>
+      <c r="R15" s="96"/>
+      <c r="S15" s="96"/>
+      <c r="T15" s="96"/>
       <c r="U15" s="33"/>
     </row>
     <row r="16" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>1</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="76" t="s">
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="K16" s="76"/>
+      <c r="K16" s="53"/>
       <c r="L16" s="2"/>
       <c r="M16" s="12">
         <v>4</v>
       </c>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="75"/>
-      <c r="S16" s="75"/>
-      <c r="T16" s="75"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="96"/>
+      <c r="R16" s="96"/>
+      <c r="S16" s="96"/>
+      <c r="T16" s="96"/>
       <c r="U16" s="33"/>
     </row>
     <row r="17" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>2</v>
       </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="72" t="s">
+      <c r="B17" s="96"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="K17" s="72"/>
+      <c r="K17" s="100"/>
       <c r="L17" s="2"/>
       <c r="M17" s="11">
         <v>5</v>
       </c>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="75"/>
-      <c r="S17" s="75"/>
-      <c r="T17" s="75"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="96"/>
+      <c r="S17" s="96"/>
+      <c r="T17" s="96"/>
       <c r="U17" s="33"/>
     </row>
     <row r="18" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="68"/>
-      <c r="T18" s="68"/>
-      <c r="U18" s="68"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="93"/>
+      <c r="U18" s="93"/>
     </row>
     <row r="19" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="81" t="s">
+      <c r="M19" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="81"/>
-      <c r="T19" s="81"/>
-      <c r="U19" s="81"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="86"/>
+      <c r="U19" s="86"/>
     </row>
     <row r="20" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79" t="s">
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79" t="s">
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="79" t="s">
+      <c r="H20" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="79"/>
-      <c r="J20" s="80" t="s">
+      <c r="I20" s="78"/>
+      <c r="J20" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="80"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="79" t="s">
+      <c r="K20" s="82"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79" t="s">
+      <c r="N20" s="78"/>
+      <c r="O20" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="79" t="s">
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="S20" s="79" t="s">
+      <c r="S20" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="T20" s="79"/>
-      <c r="U20" s="80" t="s">
+      <c r="T20" s="78"/>
+      <c r="U20" s="82" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="79"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
       <c r="D21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="79" t="s">
+      <c r="E21" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
       <c r="H21" s="40" t="s">
         <v>27</v>
       </c>
       <c r="I21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
       <c r="O21" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P21" s="79" t="s">
+      <c r="P21" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="79"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="78"/>
       <c r="S21" s="40" t="s">
         <v>27</v>
       </c>
       <c r="T21" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="U21" s="80"/>
+      <c r="U21" s="82"/>
       <c r="V21" s="15"/>
     </row>
     <row r="22" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="83"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
       <c r="D22" s="17"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
       <c r="G22" s="17"/>
       <c r="H22" s="48"/>
       <c r="I22" s="48"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="83" t="s">
+      <c r="M22" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="N22" s="83"/>
+      <c r="N22" s="80"/>
       <c r="O22" s="17"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="85"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
       <c r="R22" s="17"/>
       <c r="S22" s="41"/>
       <c r="T22" s="41"/>
       <c r="U22" s="41"/>
     </row>
     <row r="23" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="88"/>
+      <c r="A23" s="89"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="92"/>
       <c r="D23" s="47"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
       <c r="G23" s="17"/>
       <c r="H23" s="48"/>
       <c r="I23" s="48"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="86" t="s">
+      <c r="M23" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="N23" s="89"/>
+      <c r="N23" s="90"/>
       <c r="O23" s="17"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="85"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
       <c r="R23" s="17"/>
       <c r="S23" s="41"/>
       <c r="T23" s="41"/>
       <c r="U23" s="41"/>
     </row>
     <row r="24" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="90"/>
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
+      <c r="A24" s="88"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
       <c r="D24" s="17"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
       <c r="G24" s="17"/>
       <c r="H24" s="48"/>
       <c r="I24" s="48"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="90" t="s">
+      <c r="M24" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="N24" s="90"/>
+      <c r="N24" s="88"/>
       <c r="O24" s="17"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="85"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
       <c r="R24" s="17"/>
       <c r="S24" s="41"/>
       <c r="T24" s="41"/>
       <c r="U24" s="41"/>
     </row>
     <row r="25" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="91"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
+      <c r="A25" s="81"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
       <c r="G25" s="17"/>
       <c r="H25" s="48"/>
       <c r="I25" s="48"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="84"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="91" t="s">
+      <c r="M25" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="N25" s="91"/>
+      <c r="N25" s="81"/>
       <c r="O25" s="17"/>
-      <c r="P25" s="85"/>
-      <c r="Q25" s="85"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
       <c r="R25" s="17"/>
       <c r="S25" s="41"/>
       <c r="T25" s="41"/>
       <c r="U25" s="41"/>
     </row>
     <row r="26" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="91"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="91"/>
+      <c r="A26" s="81"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
       <c r="D26" s="17"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
       <c r="G26" s="17"/>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="84"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="91" t="s">
+      <c r="M26" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="N26" s="91"/>
+      <c r="N26" s="81"/>
       <c r="O26" s="17"/>
-      <c r="P26" s="85"/>
-      <c r="Q26" s="85"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
       <c r="R26" s="17"/>
       <c r="S26" s="41"/>
       <c r="T26" s="41"/>
       <c r="U26" s="41"/>
     </row>
     <row r="27" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="91"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="91"/>
+      <c r="A27" s="81"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
       <c r="G27" s="17"/>
       <c r="H27" s="48"/>
       <c r="I27" s="48"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="84"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="91" t="s">
+      <c r="M27" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="N27" s="91"/>
+      <c r="N27" s="81"/>
       <c r="O27" s="17"/>
-      <c r="P27" s="85"/>
-      <c r="Q27" s="85"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="66"/>
       <c r="R27" s="17"/>
       <c r="S27" s="41"/>
       <c r="T27" s="41"/>
       <c r="U27" s="41"/>
     </row>
     <row r="28" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="91"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="91"/>
+      <c r="A28" s="81"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
       <c r="D28" s="17"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
       <c r="G28" s="17"/>
       <c r="H28" s="48"/>
       <c r="I28" s="48"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="91" t="s">
+      <c r="M28" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="N28" s="91"/>
+      <c r="N28" s="81"/>
       <c r="O28" s="17"/>
-      <c r="P28" s="85"/>
-      <c r="Q28" s="85"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="66"/>
       <c r="R28" s="17"/>
       <c r="S28" s="41"/>
       <c r="T28" s="41"/>
       <c r="U28" s="41"/>
     </row>
     <row r="29" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="81" t="s">
+      <c r="A29" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="81" t="s">
+      <c r="M29" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="N29" s="81"/>
-      <c r="O29" s="81"/>
-      <c r="P29" s="81"/>
-      <c r="Q29" s="81"/>
-      <c r="R29" s="81"/>
-      <c r="S29" s="81"/>
-      <c r="T29" s="81"/>
-      <c r="U29" s="81"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="86"/>
+      <c r="Q29" s="86"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="86"/>
+      <c r="T29" s="86"/>
+      <c r="U29" s="86"/>
     </row>
     <row r="30" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="79" t="s">
+      <c r="A30" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79" t="s">
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79" t="s">
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="79" t="s">
+      <c r="H30" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="I30" s="79"/>
-      <c r="J30" s="80" t="s">
+      <c r="I30" s="78"/>
+      <c r="J30" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="K30" s="80"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="79" t="s">
+      <c r="K30" s="82"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="N30" s="79"/>
-      <c r="O30" s="79" t="s">
+      <c r="N30" s="78"/>
+      <c r="O30" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="P30" s="79"/>
-      <c r="Q30" s="79"/>
-      <c r="R30" s="79" t="s">
+      <c r="P30" s="78"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="S30" s="79" t="s">
+      <c r="S30" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="T30" s="79"/>
-      <c r="U30" s="80" t="s">
+      <c r="T30" s="78"/>
+      <c r="U30" s="82" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="79"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="79"/>
+      <c r="A31" s="78"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
       <c r="D31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="79" t="s">
+      <c r="E31" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
       <c r="H31" s="40" t="s">
         <v>27</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="79"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="83"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="78"/>
       <c r="O31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="P31" s="79" t="s">
+      <c r="P31" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="Q31" s="79"/>
-      <c r="R31" s="79"/>
+      <c r="Q31" s="78"/>
+      <c r="R31" s="78"/>
       <c r="S31" s="40" t="s">
         <v>27</v>
       </c>
       <c r="T31" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="U31" s="80"/>
+      <c r="U31" s="82"/>
       <c r="V31" s="15"/>
     </row>
     <row r="32" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="91" t="s">
+      <c r="A32" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
       <c r="D32" s="17"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
-      <c r="J32" s="93"/>
-      <c r="K32" s="94"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="68"/>
       <c r="L32" s="16"/>
-      <c r="M32" s="83" t="s">
+      <c r="M32" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="N32" s="83"/>
+      <c r="N32" s="80"/>
       <c r="O32" s="17"/>
-      <c r="P32" s="85"/>
-      <c r="Q32" s="85"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="66"/>
       <c r="R32" s="17"/>
       <c r="S32" s="17"/>
       <c r="T32" s="17"/>
       <c r="U32" s="17"/>
     </row>
     <row r="33" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="91" t="s">
+      <c r="A33" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="94"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="68"/>
       <c r="L33" s="16"/>
-      <c r="M33" s="86" t="s">
+      <c r="M33" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="N33" s="89"/>
+      <c r="N33" s="90"/>
       <c r="O33" s="17"/>
-      <c r="P33" s="85"/>
-      <c r="Q33" s="85"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
       <c r="R33" s="17"/>
       <c r="S33" s="17"/>
       <c r="T33" s="17"/>
       <c r="U33" s="17"/>
     </row>
     <row r="34" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="91" t="s">
+      <c r="A34" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="91"/>
-      <c r="C34" s="91"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
       <c r="D34" s="17"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="94"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="68"/>
       <c r="L34" s="16"/>
-      <c r="M34" s="90" t="s">
+      <c r="M34" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="N34" s="90"/>
+      <c r="N34" s="88"/>
       <c r="O34" s="17"/>
-      <c r="P34" s="85"/>
-      <c r="Q34" s="85"/>
+      <c r="P34" s="66"/>
+      <c r="Q34" s="66"/>
       <c r="R34" s="17"/>
       <c r="S34" s="17"/>
       <c r="T34" s="17"/>
       <c r="U34" s="17"/>
     </row>
     <row r="35" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="91" t="s">
+      <c r="A35" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="81"/>
       <c r="D35" s="17"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
-      <c r="J35" s="93"/>
-      <c r="K35" s="94"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="68"/>
       <c r="L35" s="16"/>
-      <c r="M35" s="91" t="s">
+      <c r="M35" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="N35" s="91"/>
+      <c r="N35" s="81"/>
       <c r="O35" s="17"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="85"/>
+      <c r="P35" s="66"/>
+      <c r="Q35" s="66"/>
       <c r="R35" s="17"/>
       <c r="S35" s="17"/>
       <c r="T35" s="17"/>
       <c r="U35" s="17"/>
     </row>
     <row r="36" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="91" t="s">
+      <c r="A36" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
       <c r="D36" s="17"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
-      <c r="J36" s="93"/>
-      <c r="K36" s="94"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="68"/>
       <c r="L36" s="16"/>
-      <c r="M36" s="91" t="s">
+      <c r="M36" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="N36" s="91"/>
+      <c r="N36" s="81"/>
       <c r="O36" s="17"/>
-      <c r="P36" s="85"/>
-      <c r="Q36" s="85"/>
+      <c r="P36" s="66"/>
+      <c r="Q36" s="66"/>
       <c r="R36" s="17"/>
       <c r="S36" s="17"/>
       <c r="T36" s="17"/>
       <c r="U36" s="17"/>
     </row>
     <row r="37" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="91" t="s">
+      <c r="A37" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
       <c r="D37" s="17"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
-      <c r="J37" s="93"/>
-      <c r="K37" s="94"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="68"/>
       <c r="L37" s="16"/>
-      <c r="M37" s="91" t="s">
+      <c r="M37" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="N37" s="91"/>
+      <c r="N37" s="81"/>
       <c r="O37" s="17"/>
-      <c r="P37" s="85"/>
-      <c r="Q37" s="85"/>
+      <c r="P37" s="66"/>
+      <c r="Q37" s="66"/>
       <c r="R37" s="17"/>
       <c r="S37" s="17"/>
       <c r="T37" s="17"/>
       <c r="U37" s="17"/>
     </row>
     <row r="38" spans="1:24" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="91" t="s">
+      <c r="A38" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="91"/>
-      <c r="C38" s="91"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="81"/>
       <c r="D38" s="17"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
-      <c r="J38" s="93"/>
-      <c r="K38" s="94"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="68"/>
       <c r="L38" s="16"/>
-      <c r="M38" s="91" t="s">
+      <c r="M38" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="N38" s="91"/>
+      <c r="N38" s="81"/>
       <c r="O38" s="17"/>
-      <c r="P38" s="85"/>
-      <c r="Q38" s="85"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="66"/>
       <c r="R38" s="17"/>
       <c r="S38" s="17"/>
       <c r="T38" s="17"/>
       <c r="U38" s="17"/>
     </row>
     <row r="39" spans="1:24" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="91" t="s">
+      <c r="A39" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="91"/>
-      <c r="C39" s="91"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="81"/>
       <c r="D39" s="17"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
-      <c r="J39" s="93"/>
-      <c r="K39" s="94"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="68"/>
       <c r="L39" s="16"/>
-      <c r="M39" s="91" t="s">
+      <c r="M39" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="N39" s="91"/>
+      <c r="N39" s="81"/>
       <c r="O39" s="17"/>
-      <c r="P39" s="85"/>
-      <c r="Q39" s="85"/>
+      <c r="P39" s="66"/>
+      <c r="Q39" s="66"/>
       <c r="R39" s="17"/>
       <c r="S39" s="17"/>
       <c r="T39" s="17"/>
       <c r="U39" s="17"/>
     </row>
     <row r="40" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="95" t="s">
+      <c r="A40" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="95"/>
-      <c r="C40" s="95"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="84"/>
       <c r="D40" s="17"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
       <c r="G40" s="17"/>
       <c r="H40" s="41"/>
       <c r="I40" s="17"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="84"/>
+      <c r="J40" s="85"/>
+      <c r="K40" s="85"/>
       <c r="L40" s="16"/>
-      <c r="M40" s="91" t="s">
+      <c r="M40" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N40" s="91"/>
+      <c r="N40" s="81"/>
       <c r="O40" s="17"/>
-      <c r="P40" s="85"/>
-      <c r="Q40" s="85"/>
+      <c r="P40" s="66"/>
+      <c r="Q40" s="66"/>
       <c r="R40" s="17"/>
       <c r="S40" s="17"/>
       <c r="T40" s="17"/>
       <c r="U40" s="17"/>
     </row>
     <row r="41" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="81" t="s">
+      <c r="A41" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="81"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="86"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="96" t="s">
+      <c r="M41" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="N41" s="96"/>
-      <c r="O41" s="96"/>
-      <c r="P41" s="96"/>
-      <c r="Q41" s="96"/>
-      <c r="R41" s="96"/>
-      <c r="S41" s="96"/>
-      <c r="T41" s="96"/>
-      <c r="U41" s="96"/>
+      <c r="N41" s="87"/>
+      <c r="O41" s="87"/>
+      <c r="P41" s="87"/>
+      <c r="Q41" s="87"/>
+      <c r="R41" s="87"/>
+      <c r="S41" s="87"/>
+      <c r="T41" s="87"/>
+      <c r="U41" s="87"/>
     </row>
     <row r="42" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="79" t="s">
+      <c r="A42" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="79"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79" t="s">
+      <c r="B42" s="78"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79" t="s">
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="H42" s="79" t="s">
+      <c r="H42" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="I42" s="79"/>
-      <c r="J42" s="80" t="s">
+      <c r="I42" s="78"/>
+      <c r="J42" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="K42" s="80"/>
-      <c r="L42" s="92"/>
-      <c r="M42" s="99" t="s">
+      <c r="K42" s="82"/>
+      <c r="L42" s="83"/>
+      <c r="M42" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="N42" s="99"/>
+      <c r="N42" s="77"/>
       <c r="O42" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="P42" s="79" t="s">
+      <c r="P42" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="Q42" s="79"/>
-      <c r="R42" s="79"/>
-      <c r="S42" s="79"/>
-      <c r="T42" s="79"/>
-      <c r="U42" s="79"/>
+      <c r="Q42" s="78"/>
+      <c r="R42" s="78"/>
+      <c r="S42" s="78"/>
+      <c r="T42" s="78"/>
+      <c r="U42" s="78"/>
       <c r="X42" s="19"/>
     </row>
     <row r="43" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="79"/>
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
+      <c r="A43" s="78"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
       <c r="D43" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="79" t="s">
+      <c r="E43" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
       <c r="H43" s="40" t="s">
         <v>27</v>
       </c>
       <c r="I43" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J43" s="80"/>
-      <c r="K43" s="80"/>
-      <c r="L43" s="92"/>
-      <c r="M43" s="100" t="s">
+      <c r="J43" s="82"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="83"/>
+      <c r="M43" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="N43" s="100"/>
+      <c r="N43" s="79"/>
       <c r="O43" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="P43" s="97"/>
-      <c r="Q43" s="97"/>
-      <c r="R43" s="97"/>
-      <c r="S43" s="97"/>
-      <c r="T43" s="97"/>
-      <c r="U43" s="97"/>
+      <c r="P43" s="72"/>
+      <c r="Q43" s="72"/>
+      <c r="R43" s="72"/>
+      <c r="S43" s="72"/>
+      <c r="T43" s="72"/>
+      <c r="U43" s="72"/>
     </row>
     <row r="44" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="83" t="s">
+      <c r="A44" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="83"/>
-      <c r="C44" s="83"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="80"/>
       <c r="D44" s="17"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="85"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
-      <c r="J44" s="93"/>
-      <c r="K44" s="94"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="68"/>
       <c r="L44" s="16"/>
-      <c r="M44" s="100"/>
-      <c r="N44" s="100"/>
+      <c r="M44" s="79"/>
+      <c r="N44" s="79"/>
       <c r="O44" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="P44" s="97"/>
-      <c r="Q44" s="97"/>
-      <c r="R44" s="97"/>
-      <c r="S44" s="97"/>
-      <c r="T44" s="97"/>
-      <c r="U44" s="97"/>
+      <c r="P44" s="72"/>
+      <c r="Q44" s="72"/>
+      <c r="R44" s="72"/>
+      <c r="S44" s="72"/>
+      <c r="T44" s="72"/>
+      <c r="U44" s="72"/>
     </row>
     <row r="45" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="91" t="s">
+      <c r="A45" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="91"/>
-      <c r="C45" s="91"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="81"/>
       <c r="D45" s="17"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="85"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
-      <c r="J45" s="93"/>
-      <c r="K45" s="94"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="68"/>
       <c r="L45" s="16"/>
-      <c r="M45" s="100"/>
-      <c r="N45" s="100"/>
+      <c r="M45" s="79"/>
+      <c r="N45" s="79"/>
       <c r="O45" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="P45" s="97"/>
-      <c r="Q45" s="97"/>
-      <c r="R45" s="97"/>
-      <c r="S45" s="97"/>
-      <c r="T45" s="97"/>
-      <c r="U45" s="97"/>
+      <c r="P45" s="72"/>
+      <c r="Q45" s="72"/>
+      <c r="R45" s="72"/>
+      <c r="S45" s="72"/>
+      <c r="T45" s="72"/>
+      <c r="U45" s="72"/>
     </row>
     <row r="46" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="98" t="s">
+      <c r="A46" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="98"/>
-      <c r="C46" s="98"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="76"/>
       <c r="D46" s="17"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
-      <c r="J46" s="93"/>
-      <c r="K46" s="94"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="68"/>
       <c r="L46" s="16"/>
-      <c r="M46" s="100"/>
-      <c r="N46" s="100"/>
+      <c r="M46" s="79"/>
+      <c r="N46" s="79"/>
       <c r="O46" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="P46" s="97"/>
-      <c r="Q46" s="97"/>
-      <c r="R46" s="97"/>
-      <c r="S46" s="97"/>
-      <c r="T46" s="97"/>
-      <c r="U46" s="97"/>
+      <c r="P46" s="72"/>
+      <c r="Q46" s="72"/>
+      <c r="R46" s="72"/>
+      <c r="S46" s="72"/>
+      <c r="T46" s="72"/>
+      <c r="U46" s="72"/>
     </row>
     <row r="47" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="98" t="s">
+      <c r="A47" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="98"/>
-      <c r="C47" s="98"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="76"/>
       <c r="D47" s="17"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
-      <c r="J47" s="93"/>
-      <c r="K47" s="94"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="68"/>
       <c r="L47" s="16"/>
-      <c r="M47" s="100"/>
-      <c r="N47" s="100"/>
+      <c r="M47" s="79"/>
+      <c r="N47" s="79"/>
       <c r="O47" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="P47" s="97"/>
-      <c r="Q47" s="97"/>
-      <c r="R47" s="97"/>
-      <c r="S47" s="97"/>
-      <c r="T47" s="97"/>
-      <c r="U47" s="97"/>
+      <c r="P47" s="72"/>
+      <c r="Q47" s="72"/>
+      <c r="R47" s="72"/>
+      <c r="S47" s="72"/>
+      <c r="T47" s="72"/>
+      <c r="U47" s="72"/>
     </row>
     <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="101" t="s">
+      <c r="A48" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="101"/>
-      <c r="C48" s="101"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="73"/>
       <c r="D48" s="17"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="85"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
-      <c r="J48" s="93"/>
-      <c r="K48" s="94"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="68"/>
       <c r="L48" s="16"/>
-      <c r="M48" s="102" t="s">
+      <c r="M48" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="N48" s="102"/>
+      <c r="N48" s="74"/>
       <c r="O48" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="P48" s="103" t="s">
+      <c r="P48" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="Q48" s="103"/>
-      <c r="R48" s="103"/>
-      <c r="S48" s="103"/>
-      <c r="T48" s="103" t="s">
+      <c r="Q48" s="75"/>
+      <c r="R48" s="75"/>
+      <c r="S48" s="75"/>
+      <c r="T48" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="U48" s="103"/>
+      <c r="U48" s="75"/>
     </row>
     <row r="49" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="104" t="s">
+      <c r="A49" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="104"/>
-      <c r="C49" s="104"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="70"/>
       <c r="D49" s="17"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
-      <c r="J49" s="93"/>
-      <c r="K49" s="94"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="68"/>
       <c r="L49" s="30"/>
-      <c r="M49" s="105" t="s">
+      <c r="M49" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="N49" s="105"/>
+      <c r="N49" s="71"/>
       <c r="O49" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="P49" s="106"/>
-      <c r="Q49" s="106"/>
-      <c r="R49" s="106"/>
-      <c r="S49" s="106"/>
-      <c r="T49" s="107"/>
-      <c r="U49" s="107"/>
+      <c r="P49" s="69"/>
+      <c r="Q49" s="69"/>
+      <c r="R49" s="69"/>
+      <c r="S49" s="69"/>
+      <c r="T49" s="64"/>
+      <c r="U49" s="64"/>
     </row>
     <row r="50" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="104" t="s">
+      <c r="A50" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="104"/>
-      <c r="C50" s="104"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
       <c r="D50" s="17"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="85"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
-      <c r="J50" s="93"/>
-      <c r="K50" s="94"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="68"/>
       <c r="L50" s="30"/>
-      <c r="M50" s="105"/>
-      <c r="N50" s="105"/>
+      <c r="M50" s="71"/>
+      <c r="N50" s="71"/>
       <c r="O50" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="P50" s="106"/>
-      <c r="Q50" s="106"/>
-      <c r="R50" s="106"/>
-      <c r="S50" s="106"/>
-      <c r="T50" s="107"/>
-      <c r="U50" s="107"/>
+      <c r="P50" s="69"/>
+      <c r="Q50" s="69"/>
+      <c r="R50" s="69"/>
+      <c r="S50" s="69"/>
+      <c r="T50" s="64"/>
+      <c r="U50" s="64"/>
     </row>
     <row r="51" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="104" t="s">
+      <c r="A51" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="104"/>
-      <c r="C51" s="104"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="70"/>
       <c r="D51" s="17"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="85"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
-      <c r="J51" s="93"/>
-      <c r="K51" s="94"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="68"/>
       <c r="L51" s="30"/>
-      <c r="M51" s="105"/>
-      <c r="N51" s="105"/>
+      <c r="M51" s="71"/>
+      <c r="N51" s="71"/>
       <c r="O51" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="P51" s="106"/>
-      <c r="Q51" s="106"/>
-      <c r="R51" s="106"/>
-      <c r="S51" s="106"/>
-      <c r="T51" s="107"/>
-      <c r="U51" s="107"/>
+      <c r="P51" s="69"/>
+      <c r="Q51" s="69"/>
+      <c r="R51" s="69"/>
+      <c r="S51" s="69"/>
+      <c r="T51" s="64"/>
+      <c r="U51" s="64"/>
     </row>
     <row r="52" spans="1:21" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="112" t="s">
+      <c r="A52" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B52" s="112"/>
-      <c r="C52" s="112"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="65"/>
       <c r="D52" s="17"/>
-      <c r="E52" s="85"/>
-      <c r="F52" s="85"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
-      <c r="J52" s="93"/>
-      <c r="K52" s="94"/>
+      <c r="J52" s="67"/>
+      <c r="K52" s="68"/>
       <c r="L52" s="30"/>
-      <c r="M52" s="105"/>
-      <c r="N52" s="105"/>
+      <c r="M52" s="71"/>
+      <c r="N52" s="71"/>
       <c r="O52" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="P52" s="106"/>
-      <c r="Q52" s="106"/>
-      <c r="R52" s="106"/>
-      <c r="S52" s="106"/>
-      <c r="T52" s="107"/>
-      <c r="U52" s="107"/>
+      <c r="P52" s="69"/>
+      <c r="Q52" s="69"/>
+      <c r="R52" s="69"/>
+      <c r="S52" s="69"/>
+      <c r="T52" s="64"/>
+      <c r="U52" s="64"/>
     </row>
     <row r="53" spans="1:21" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="112" t="s">
+      <c r="A53" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="112"/>
-      <c r="C53" s="112"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="65"/>
       <c r="D53" s="17"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
-      <c r="J53" s="93"/>
-      <c r="K53" s="94"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="68"/>
       <c r="L53" s="30"/>
-      <c r="M53" s="105"/>
-      <c r="N53" s="105"/>
+      <c r="M53" s="71"/>
+      <c r="N53" s="71"/>
       <c r="O53" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="P53" s="106"/>
-      <c r="Q53" s="106"/>
-      <c r="R53" s="106"/>
-      <c r="S53" s="106"/>
-      <c r="T53" s="107"/>
-      <c r="U53" s="107"/>
+      <c r="P53" s="69"/>
+      <c r="Q53" s="69"/>
+      <c r="R53" s="69"/>
+      <c r="S53" s="69"/>
+      <c r="T53" s="64"/>
+      <c r="U53" s="64"/>
     </row>
     <row r="54" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="28" t="s">
@@ -3058,348 +3113,518 @@
       <c r="U54" s="46"/>
     </row>
     <row r="55" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="108"/>
-      <c r="B55" s="109"/>
-      <c r="C55" s="109"/>
-      <c r="D55" s="110"/>
-      <c r="E55" s="110"/>
-      <c r="F55" s="110"/>
-      <c r="G55" s="110"/>
-      <c r="H55" s="110"/>
-      <c r="I55" s="110"/>
-      <c r="J55" s="110"/>
-      <c r="K55" s="110"/>
-      <c r="L55" s="110"/>
-      <c r="M55" s="110"/>
-      <c r="N55" s="110"/>
-      <c r="O55" s="110"/>
-      <c r="P55" s="110"/>
-      <c r="Q55" s="110"/>
-      <c r="R55" s="110"/>
-      <c r="S55" s="110"/>
-      <c r="T55" s="110"/>
-      <c r="U55" s="111"/>
-    </row>
-    <row r="56" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="116"/>
-      <c r="B56" s="116"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="116"/>
-      <c r="E56" s="116"/>
-      <c r="F56" s="116"/>
-      <c r="G56" s="116"/>
-      <c r="H56" s="116"/>
-      <c r="I56" s="116"/>
-      <c r="J56" s="116"/>
-      <c r="K56" s="116"/>
-      <c r="L56" s="116"/>
-      <c r="M56" s="116"/>
-      <c r="N56" s="116"/>
-      <c r="O56" s="116"/>
-      <c r="P56" s="116"/>
-      <c r="Q56" s="116"/>
-      <c r="R56" s="116"/>
-      <c r="S56" s="116"/>
-      <c r="T56" s="116"/>
-      <c r="U56" s="116"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A57" s="76" t="s">
+      <c r="A55" s="60"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="62"/>
+      <c r="N55" s="62"/>
+      <c r="O55" s="62"/>
+      <c r="P55" s="62"/>
+      <c r="Q55" s="62"/>
+      <c r="R55" s="62"/>
+      <c r="S55" s="62"/>
+      <c r="T55" s="62"/>
+      <c r="U55" s="63"/>
+    </row>
+    <row r="56" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="123"/>
+      <c r="B56" s="124"/>
+      <c r="C56" s="124"/>
+      <c r="D56" s="124"/>
+      <c r="E56" s="124"/>
+      <c r="F56" s="124"/>
+      <c r="G56" s="124"/>
+      <c r="H56" s="124"/>
+      <c r="I56" s="124"/>
+      <c r="J56" s="124"/>
+      <c r="K56" s="124"/>
+      <c r="L56" s="124"/>
+      <c r="M56" s="124"/>
+      <c r="N56" s="124"/>
+      <c r="O56" s="124"/>
+      <c r="P56" s="124"/>
+      <c r="Q56" s="124"/>
+      <c r="R56" s="124"/>
+      <c r="S56" s="124"/>
+      <c r="T56" s="124"/>
+      <c r="U56" s="125"/>
+    </row>
+    <row r="57" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="123"/>
+      <c r="B57" s="124"/>
+      <c r="C57" s="124"/>
+      <c r="D57" s="124"/>
+      <c r="E57" s="124"/>
+      <c r="F57" s="124"/>
+      <c r="G57" s="124"/>
+      <c r="H57" s="124"/>
+      <c r="I57" s="124"/>
+      <c r="J57" s="124"/>
+      <c r="K57" s="124"/>
+      <c r="L57" s="124"/>
+      <c r="M57" s="124"/>
+      <c r="N57" s="124"/>
+      <c r="O57" s="124"/>
+      <c r="P57" s="124"/>
+      <c r="Q57" s="124"/>
+      <c r="R57" s="124"/>
+      <c r="S57" s="124"/>
+      <c r="T57" s="124"/>
+      <c r="U57" s="125"/>
+    </row>
+    <row r="58" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="126"/>
+      <c r="B58" s="127"/>
+      <c r="C58" s="127"/>
+      <c r="D58" s="127"/>
+      <c r="E58" s="127"/>
+      <c r="F58" s="127"/>
+      <c r="G58" s="127"/>
+      <c r="H58" s="127"/>
+      <c r="I58" s="127"/>
+      <c r="J58" s="127"/>
+      <c r="K58" s="127"/>
+      <c r="L58" s="127"/>
+      <c r="M58" s="127"/>
+      <c r="N58" s="127"/>
+      <c r="O58" s="127"/>
+      <c r="P58" s="127"/>
+      <c r="Q58" s="127"/>
+      <c r="R58" s="127"/>
+      <c r="S58" s="127"/>
+      <c r="T58" s="127"/>
+      <c r="U58" s="128"/>
+    </row>
+    <row r="59" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="52"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="52"/>
+      <c r="O59" s="52"/>
+      <c r="P59" s="52"/>
+      <c r="Q59" s="52"/>
+      <c r="R59" s="52"/>
+      <c r="S59" s="52"/>
+      <c r="T59" s="52"/>
+      <c r="U59" s="52"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="76"/>
-      <c r="C57" s="76"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="76"/>
-      <c r="I57" s="76"/>
-      <c r="J57" s="76"/>
-      <c r="K57" s="76"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="117" t="s">
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="53"/>
+      <c r="K60" s="53"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="N57" s="117"/>
-      <c r="O57" s="117"/>
-      <c r="P57" s="117"/>
-      <c r="Q57" s="117"/>
-      <c r="R57" s="117"/>
-      <c r="S57" s="117"/>
-      <c r="T57" s="117"/>
-      <c r="U57" s="117"/>
-    </row>
-    <row r="58" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="118" t="s">
+      <c r="N60" s="54"/>
+      <c r="O60" s="54"/>
+      <c r="P60" s="54"/>
+      <c r="Q60" s="54"/>
+      <c r="R60" s="54"/>
+      <c r="S60" s="54"/>
+      <c r="T60" s="54"/>
+      <c r="U60" s="54"/>
+    </row>
+    <row r="61" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="118"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="118"/>
-      <c r="E58" s="115" t="s">
+      <c r="B61" s="55"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="F58" s="115"/>
-      <c r="G58" s="115"/>
-      <c r="H58" s="115"/>
-      <c r="I58" s="115"/>
-      <c r="J58" s="115"/>
-      <c r="K58" s="115"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="118" t="s">
+      <c r="F61" s="51"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="51"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="N58" s="118"/>
-      <c r="O58" s="118"/>
-      <c r="P58" s="115" t="s">
+      <c r="N61" s="55"/>
+      <c r="O61" s="55"/>
+      <c r="P61" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="Q58" s="115"/>
-      <c r="R58" s="115"/>
-      <c r="S58" s="115"/>
-      <c r="T58" s="115"/>
-      <c r="U58" s="115"/>
-    </row>
-    <row r="59" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="114" t="s">
+      <c r="Q61" s="51"/>
+      <c r="R61" s="51"/>
+      <c r="S61" s="51"/>
+      <c r="T61" s="51"/>
+      <c r="U61" s="51"/>
+    </row>
+    <row r="62" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="114"/>
-      <c r="C59" s="114"/>
-      <c r="D59" s="114"/>
-      <c r="E59" s="115"/>
-      <c r="F59" s="115"/>
-      <c r="G59" s="115"/>
-      <c r="H59" s="115"/>
-      <c r="I59" s="115"/>
-      <c r="J59" s="115"/>
-      <c r="K59" s="115"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="114" t="s">
+      <c r="B62" s="50"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="51"/>
+      <c r="J62" s="51"/>
+      <c r="K62" s="51"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="N59" s="114"/>
-      <c r="O59" s="114"/>
-      <c r="P59" s="115"/>
-      <c r="Q59" s="115"/>
-      <c r="R59" s="115"/>
-      <c r="S59" s="115"/>
-      <c r="T59" s="115"/>
-      <c r="U59" s="115"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A60" s="114"/>
-      <c r="B60" s="114"/>
-      <c r="C60" s="114"/>
-      <c r="D60" s="114"/>
-      <c r="E60" s="115"/>
-      <c r="F60" s="115"/>
-      <c r="G60" s="115"/>
-      <c r="H60" s="115"/>
-      <c r="I60" s="115"/>
-      <c r="J60" s="115"/>
-      <c r="K60" s="115"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="114"/>
-      <c r="N60" s="114"/>
-      <c r="O60" s="114"/>
-      <c r="P60" s="115"/>
-      <c r="Q60" s="115"/>
-      <c r="R60" s="115"/>
-      <c r="S60" s="115"/>
-      <c r="T60" s="115"/>
-      <c r="U60" s="115"/>
-    </row>
-    <row r="61" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="114" t="s">
+      <c r="N62" s="50"/>
+      <c r="O62" s="50"/>
+      <c r="P62" s="51"/>
+      <c r="Q62" s="51"/>
+      <c r="R62" s="51"/>
+      <c r="S62" s="51"/>
+      <c r="T62" s="51"/>
+      <c r="U62" s="51"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" s="50"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="51"/>
+      <c r="J63" s="51"/>
+      <c r="K63" s="51"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="50"/>
+      <c r="N63" s="50"/>
+      <c r="O63" s="50"/>
+      <c r="P63" s="51"/>
+      <c r="Q63" s="51"/>
+      <c r="R63" s="51"/>
+      <c r="S63" s="51"/>
+      <c r="T63" s="51"/>
+      <c r="U63" s="51"/>
+    </row>
+    <row r="64" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="114"/>
-      <c r="C61" s="114"/>
-      <c r="D61" s="114"/>
-      <c r="E61" s="115"/>
-      <c r="F61" s="115"/>
-      <c r="G61" s="115"/>
-      <c r="H61" s="115"/>
-      <c r="I61" s="115"/>
-      <c r="J61" s="115"/>
-      <c r="K61" s="115"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="114" t="s">
+      <c r="B64" s="50"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="51"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="N61" s="114"/>
-      <c r="O61" s="114"/>
-      <c r="P61" s="115"/>
-      <c r="Q61" s="115"/>
-      <c r="R61" s="115"/>
-      <c r="S61" s="115"/>
-      <c r="T61" s="115"/>
-      <c r="U61" s="115"/>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A62" s="114"/>
-      <c r="B62" s="114"/>
-      <c r="C62" s="114"/>
-      <c r="D62" s="114"/>
-      <c r="E62" s="115"/>
-      <c r="F62" s="115"/>
-      <c r="G62" s="115"/>
-      <c r="H62" s="115"/>
-      <c r="I62" s="115"/>
-      <c r="J62" s="115"/>
-      <c r="K62" s="115"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="114"/>
-      <c r="N62" s="114"/>
-      <c r="O62" s="114"/>
-      <c r="P62" s="115"/>
-      <c r="Q62" s="115"/>
-      <c r="R62" s="115"/>
-      <c r="S62" s="115"/>
-      <c r="T62" s="115"/>
-      <c r="U62" s="115"/>
-    </row>
-    <row r="63" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="119" t="s">
+      <c r="N64" s="50"/>
+      <c r="O64" s="50"/>
+      <c r="P64" s="51"/>
+      <c r="Q64" s="51"/>
+      <c r="R64" s="51"/>
+      <c r="S64" s="51"/>
+      <c r="T64" s="51"/>
+      <c r="U64" s="51"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" s="50"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="51"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="50"/>
+      <c r="N65" s="50"/>
+      <c r="O65" s="50"/>
+      <c r="P65" s="51"/>
+      <c r="Q65" s="51"/>
+      <c r="R65" s="51"/>
+      <c r="S65" s="51"/>
+      <c r="T65" s="51"/>
+      <c r="U65" s="51"/>
+    </row>
+    <row r="66" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="B63" s="119"/>
-      <c r="C63" s="119"/>
-      <c r="D63" s="119"/>
-      <c r="E63" s="115"/>
-      <c r="F63" s="115"/>
-      <c r="G63" s="115"/>
-      <c r="H63" s="115"/>
-      <c r="I63" s="115"/>
-      <c r="J63" s="115"/>
-      <c r="K63" s="115"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="119" t="s">
+      <c r="B66" s="56"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="51"/>
+      <c r="K66" s="51"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="N63" s="119"/>
-      <c r="O63" s="119"/>
-      <c r="P63" s="115"/>
-      <c r="Q63" s="115"/>
-      <c r="R63" s="115"/>
-      <c r="S63" s="115"/>
-      <c r="T63" s="115"/>
-      <c r="U63" s="115"/>
-    </row>
-    <row r="64" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="120" t="s">
+      <c r="N66" s="56"/>
+      <c r="O66" s="56"/>
+      <c r="P66" s="51"/>
+      <c r="Q66" s="51"/>
+      <c r="R66" s="51"/>
+      <c r="S66" s="51"/>
+      <c r="T66" s="51"/>
+      <c r="U66" s="51"/>
+    </row>
+    <row r="67" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="B64" s="121"/>
-      <c r="C64" s="121"/>
-      <c r="D64" s="122"/>
-      <c r="E64" s="115"/>
-      <c r="F64" s="115"/>
-      <c r="G64" s="115"/>
-      <c r="H64" s="115"/>
-      <c r="I64" s="115"/>
-      <c r="J64" s="115"/>
-      <c r="K64" s="115"/>
-      <c r="L64" s="21"/>
-      <c r="M64" s="120" t="s">
+      <c r="B67" s="58"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="51"/>
+      <c r="H67" s="51"/>
+      <c r="I67" s="51"/>
+      <c r="J67" s="51"/>
+      <c r="K67" s="51"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="N64" s="121"/>
-      <c r="O64" s="122"/>
-      <c r="P64" s="115"/>
-      <c r="Q64" s="115"/>
-      <c r="R64" s="115"/>
-      <c r="S64" s="115"/>
-      <c r="T64" s="115"/>
-      <c r="U64" s="115"/>
-    </row>
-    <row r="65" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="113" t="s">
+      <c r="N67" s="58"/>
+      <c r="O67" s="59"/>
+      <c r="P67" s="51"/>
+      <c r="Q67" s="51"/>
+      <c r="R67" s="51"/>
+      <c r="S67" s="51"/>
+      <c r="T67" s="51"/>
+      <c r="U67" s="51"/>
+    </row>
+    <row r="68" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="113"/>
-      <c r="C65" s="113"/>
-      <c r="D65" s="113"/>
-      <c r="E65" s="113"/>
-      <c r="F65" s="113"/>
-      <c r="G65" s="113"/>
-      <c r="H65" s="113"/>
-      <c r="I65" s="113"/>
-      <c r="J65" s="113"/>
-      <c r="K65" s="113"/>
-      <c r="L65" s="113"/>
-      <c r="M65" s="113"/>
-      <c r="N65" s="113"/>
-      <c r="O65" s="113"/>
-      <c r="P65" s="113"/>
-      <c r="Q65" s="113"/>
-      <c r="R65" s="113"/>
-      <c r="S65" s="113"/>
-      <c r="T65" s="113"/>
-      <c r="U65" s="113"/>
-    </row>
-    <row r="66" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="49"/>
+      <c r="J68" s="49"/>
+      <c r="K68" s="49"/>
+      <c r="L68" s="49"/>
+      <c r="M68" s="49"/>
+      <c r="N68" s="49"/>
+      <c r="O68" s="49"/>
+      <c r="P68" s="49"/>
+      <c r="Q68" s="49"/>
+      <c r="R68" s="49"/>
+      <c r="S68" s="49"/>
+      <c r="T68" s="49"/>
+      <c r="U68" s="49"/>
+    </row>
+    <row r="69" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="234">
-    <mergeCell ref="A65:U65"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="E58:K64"/>
+  <mergeCells count="237">
     <mergeCell ref="A56:U56"/>
-    <mergeCell ref="A57:K57"/>
-    <mergeCell ref="M57:U57"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="P58:U64"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="M63:O63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="M64:O64"/>
-    <mergeCell ref="A55:U55"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="P53:S53"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="M49:N53"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="P49:S49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="P50:S50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="P51:S51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="P47:U47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="P48:S48"/>
-    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="A58:U58"/>
+    <mergeCell ref="A57:U57"/>
+    <mergeCell ref="M1:U1"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="F9:U9"/>
+    <mergeCell ref="N10:U10"/>
+    <mergeCell ref="M6:U6"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="N11:U11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A18:U18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="M19:U19"/>
+    <mergeCell ref="A20:C21"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:N21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="M29:U29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="M30:N31"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="M41:U41"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="P39:Q39"/>
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="J45:K45"/>
     <mergeCell ref="P45:U45"/>
@@ -3424,160 +3649,62 @@
     <mergeCell ref="J42:K43"/>
     <mergeCell ref="L42:L43"/>
     <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="M41:U41"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="M30:N31"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="M29:U29"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A18:U18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="M19:U19"/>
-    <mergeCell ref="A20:C21"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:N21"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="N11:U11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="F9:U9"/>
-    <mergeCell ref="N10:U10"/>
-    <mergeCell ref="M6:U6"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="M1:U1"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="P47:U47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="P48:S48"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="M49:N53"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="P49:S49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="P50:S50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="P51:S51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="A55:U55"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="A68:U68"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="E61:K67"/>
+    <mergeCell ref="A59:U59"/>
+    <mergeCell ref="A60:K60"/>
+    <mergeCell ref="M60:U60"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="P61:U67"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="M67:O67"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="3.937007874015748E-2" bottom="0.82677165354330717" header="0.51181102362204722" footer="0.51181102362204722"/>
